--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Slpi</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H2">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I2">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J2">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.19519944551247</v>
+        <v>6.2162245</v>
       </c>
       <c r="N2">
-        <v>6.19519944551247</v>
+        <v>12.432449</v>
       </c>
       <c r="O2">
-        <v>0.2253128649364094</v>
+        <v>0.2223845599234924</v>
       </c>
       <c r="P2">
-        <v>0.2253128649364094</v>
+        <v>0.1638264648089691</v>
       </c>
       <c r="Q2">
-        <v>2.576224022418573</v>
+        <v>3.780869362737</v>
       </c>
       <c r="R2">
-        <v>2.576224022418573</v>
+        <v>22.685216176422</v>
       </c>
       <c r="S2">
-        <v>0.02760493176919653</v>
+        <v>0.02159419402004719</v>
       </c>
       <c r="T2">
-        <v>0.02760493176919653</v>
+        <v>0.01604442569829461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H3">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I3">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J3">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.79708389125303</v>
+        <v>5.080245000000001</v>
       </c>
       <c r="N3">
-        <v>4.79708389125303</v>
+        <v>15.240735</v>
       </c>
       <c r="O3">
-        <v>0.1744648779082384</v>
+        <v>0.1817450525843336</v>
       </c>
       <c r="P3">
-        <v>0.1744648779082384</v>
+        <v>0.2008321720153707</v>
       </c>
       <c r="Q3">
-        <v>1.994828877891102</v>
+        <v>3.089937095370001</v>
       </c>
       <c r="R3">
-        <v>1.994828877891102</v>
+        <v>27.80943385833</v>
       </c>
       <c r="S3">
-        <v>0.02137512676933641</v>
+        <v>0.01764797847944113</v>
       </c>
       <c r="T3">
-        <v>0.02137512676933641</v>
+        <v>0.019668597900132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H4">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I4">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J4">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.8949470547174</v>
+        <v>3.968023</v>
       </c>
       <c r="N4">
-        <v>3.8949470547174</v>
+        <v>11.904069</v>
       </c>
       <c r="O4">
-        <v>0.1416551133490446</v>
+        <v>0.1419554664766847</v>
       </c>
       <c r="P4">
-        <v>0.1416551133490446</v>
+        <v>0.156863827964389</v>
       </c>
       <c r="Q4">
-        <v>1.619682506860987</v>
+        <v>2.413454757198</v>
       </c>
       <c r="R4">
-        <v>1.619682506860987</v>
+        <v>21.721092814782</v>
       </c>
       <c r="S4">
-        <v>0.01735533272750232</v>
+        <v>0.01378429278704617</v>
       </c>
       <c r="T4">
-        <v>0.01735533272750232</v>
+        <v>0.01536253642205749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H5">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I5">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J5">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.83279398116487</v>
+        <v>4.897120999999999</v>
       </c>
       <c r="N5">
-        <v>4.83279398116487</v>
+        <v>14.691363</v>
       </c>
       <c r="O5">
-        <v>0.1757636161871168</v>
+        <v>0.1751938171597716</v>
       </c>
       <c r="P5">
-        <v>0.1757636161871168</v>
+        <v>0.1935929166904518</v>
       </c>
       <c r="Q5">
-        <v>2.009678632492667</v>
+        <v>2.978556317346</v>
       </c>
       <c r="R5">
-        <v>2.009678632492667</v>
+        <v>26.807006856114</v>
       </c>
       <c r="S5">
-        <v>0.02153424587505015</v>
+        <v>0.01701183427555545</v>
       </c>
       <c r="T5">
-        <v>0.02153424587505015</v>
+        <v>0.01895961785647982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H6">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I6">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J6">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.0223334534051</v>
+        <v>6.037346333333333</v>
       </c>
       <c r="N6">
-        <v>6.0223334534051</v>
+        <v>18.112039</v>
       </c>
       <c r="O6">
-        <v>0.2190259112597204</v>
+        <v>0.2159852185911309</v>
       </c>
       <c r="P6">
-        <v>0.2190259112597204</v>
+        <v>0.2386682881105867</v>
       </c>
       <c r="Q6">
-        <v>2.504339085469721</v>
+        <v>3.672071010938</v>
       </c>
       <c r="R6">
-        <v>2.504339085469721</v>
+        <v>33.048639098442</v>
       </c>
       <c r="S6">
-        <v>0.02683466537837113</v>
+        <v>0.02097279917870091</v>
       </c>
       <c r="T6">
-        <v>0.02683466537837113</v>
+        <v>0.02337409660639784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H7">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I7">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J7">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.75362846510257</v>
+        <v>1.7536305</v>
       </c>
       <c r="N7">
-        <v>1.75362846510257</v>
+        <v>3.507261</v>
       </c>
       <c r="O7">
-        <v>0.06377761635947043</v>
+        <v>0.06273588526458686</v>
       </c>
       <c r="P7">
-        <v>0.06377761635947043</v>
+        <v>0.0462163304102329</v>
       </c>
       <c r="Q7">
-        <v>0.729232338349769</v>
+        <v>1.066603664493</v>
       </c>
       <c r="R7">
-        <v>0.729232338349769</v>
+        <v>6.399621986958</v>
       </c>
       <c r="S7">
-        <v>0.007813920206030249</v>
+        <v>0.006091838744960444</v>
       </c>
       <c r="T7">
-        <v>0.007813920206030249</v>
+        <v>0.004526219131807938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H8">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I8">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J8">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.19519944551247</v>
+        <v>6.2162245</v>
       </c>
       <c r="N8">
-        <v>6.19519944551247</v>
+        <v>12.432449</v>
       </c>
       <c r="O8">
-        <v>0.2253128649364094</v>
+        <v>0.2223845599234924</v>
       </c>
       <c r="P8">
-        <v>0.2253128649364094</v>
+        <v>0.1638264648089691</v>
       </c>
       <c r="Q8">
-        <v>9.244011789820535</v>
+        <v>24.05909296221467</v>
       </c>
       <c r="R8">
-        <v>9.244011789820535</v>
+        <v>144.354557773288</v>
       </c>
       <c r="S8">
-        <v>0.09905206709938197</v>
+        <v>0.1374119736833009</v>
       </c>
       <c r="T8">
-        <v>0.09905206709938197</v>
+        <v>0.1020967117258919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H9">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I9">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J9">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.79708389125303</v>
+        <v>5.080245000000001</v>
       </c>
       <c r="N9">
-        <v>4.79708389125303</v>
+        <v>15.240735</v>
       </c>
       <c r="O9">
-        <v>0.1744648779082384</v>
+        <v>0.1817450525843336</v>
       </c>
       <c r="P9">
-        <v>0.1744648779082384</v>
+        <v>0.2008321720153707</v>
       </c>
       <c r="Q9">
-        <v>7.1578486596783</v>
+        <v>19.66243122748</v>
       </c>
       <c r="R9">
-        <v>7.1578486596783</v>
+        <v>176.96188104732</v>
       </c>
       <c r="S9">
-        <v>0.07669826930623602</v>
+        <v>0.112300720838625</v>
       </c>
       <c r="T9">
-        <v>0.07669826930623602</v>
+        <v>0.1251586817517378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H10">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I10">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J10">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.8949470547174</v>
+        <v>3.968023</v>
       </c>
       <c r="N10">
-        <v>3.8949470547174</v>
+        <v>11.904069</v>
       </c>
       <c r="O10">
-        <v>0.1416551133490446</v>
+        <v>0.1419554664766847</v>
       </c>
       <c r="P10">
-        <v>0.1416551133490446</v>
+        <v>0.156863827964389</v>
       </c>
       <c r="Q10">
-        <v>5.811747759083818</v>
+        <v>15.35771982385867</v>
       </c>
       <c r="R10">
-        <v>5.811747759083818</v>
+        <v>138.219478414728</v>
       </c>
       <c r="S10">
-        <v>0.0622744369096731</v>
+        <v>0.08771463644061324</v>
       </c>
       <c r="T10">
-        <v>0.0622744369096731</v>
+        <v>0.09775759394292517</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H11">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I11">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J11">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.83279398116487</v>
+        <v>4.897120999999999</v>
       </c>
       <c r="N11">
-        <v>4.83279398116487</v>
+        <v>14.691363</v>
       </c>
       <c r="O11">
-        <v>0.1757636161871168</v>
+        <v>0.1751938171597716</v>
       </c>
       <c r="P11">
-        <v>0.1757636161871168</v>
+        <v>0.1935929166904518</v>
       </c>
       <c r="Q11">
-        <v>7.211132576534231</v>
+        <v>18.95367346951733</v>
       </c>
       <c r="R11">
-        <v>7.211132576534231</v>
+        <v>170.583061225656</v>
       </c>
       <c r="S11">
-        <v>0.07726922077489853</v>
+        <v>0.108252696146341</v>
       </c>
       <c r="T11">
-        <v>0.07726922077489853</v>
+        <v>0.1206471752324449</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H12">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I12">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J12">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.0223334534051</v>
+        <v>6.037346333333333</v>
       </c>
       <c r="N12">
-        <v>6.0223334534051</v>
+        <v>18.112039</v>
       </c>
       <c r="O12">
-        <v>0.2190259112597204</v>
+        <v>0.2159852185911309</v>
       </c>
       <c r="P12">
-        <v>0.2190259112597204</v>
+        <v>0.2386682881105867</v>
       </c>
       <c r="Q12">
-        <v>8.986074126448445</v>
+        <v>23.36676815304089</v>
       </c>
       <c r="R12">
-        <v>8.986074126448445</v>
+        <v>210.300913377368</v>
       </c>
       <c r="S12">
-        <v>0.09628819581484675</v>
+        <v>0.1334578047290559</v>
       </c>
       <c r="T12">
-        <v>0.09628819581484675</v>
+        <v>0.1487381628954288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H13">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I13">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J13">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.75362846510257</v>
+        <v>1.7536305</v>
       </c>
       <c r="N13">
-        <v>1.75362846510257</v>
+        <v>3.507261</v>
       </c>
       <c r="O13">
-        <v>0.06377761635947043</v>
+        <v>0.06273588526458686</v>
       </c>
       <c r="P13">
-        <v>0.06377761635947043</v>
+        <v>0.0462163304102329</v>
       </c>
       <c r="Q13">
-        <v>2.616632821743174</v>
+        <v>6.787200047371999</v>
       </c>
       <c r="R13">
-        <v>2.616632821743174</v>
+        <v>40.723200284232</v>
       </c>
       <c r="S13">
-        <v>0.02803792289827682</v>
+        <v>0.03876465982144529</v>
       </c>
       <c r="T13">
-        <v>0.02803792289827682</v>
+        <v>0.02880203371551842</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.48615657962513</v>
+        <v>1.597393</v>
       </c>
       <c r="H14">
-        <v>1.48615657962513</v>
+        <v>4.792179</v>
       </c>
       <c r="I14">
-        <v>0.4378616644712</v>
+        <v>0.2550228905360453</v>
       </c>
       <c r="J14">
-        <v>0.4378616644712</v>
+        <v>0.2572094450951073</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.19519944551247</v>
+        <v>6.2162245</v>
       </c>
       <c r="N14">
-        <v>6.19519944551247</v>
+        <v>12.432449</v>
       </c>
       <c r="O14">
-        <v>0.2253128649364094</v>
+        <v>0.2223845599234924</v>
       </c>
       <c r="P14">
-        <v>0.2253128649364094</v>
+        <v>0.1638264648089691</v>
       </c>
       <c r="Q14">
-        <v>9.207036418038314</v>
+        <v>9.9297535027285</v>
       </c>
       <c r="R14">
-        <v>9.207036418038314</v>
+        <v>59.578521016371</v>
       </c>
       <c r="S14">
-        <v>0.0986558660678309</v>
+        <v>0.05671315328227541</v>
       </c>
       <c r="T14">
-        <v>0.0986558660678309</v>
+        <v>0.04213771410540807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.48615657962513</v>
+        <v>1.597393</v>
       </c>
       <c r="H15">
-        <v>1.48615657962513</v>
+        <v>4.792179</v>
       </c>
       <c r="I15">
-        <v>0.4378616644712</v>
+        <v>0.2550228905360453</v>
       </c>
       <c r="J15">
-        <v>0.4378616644712</v>
+        <v>0.2572094450951073</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.79708389125303</v>
+        <v>5.080245000000001</v>
       </c>
       <c r="N15">
-        <v>4.79708389125303</v>
+        <v>15.240735</v>
       </c>
       <c r="O15">
-        <v>0.1744648779082384</v>
+        <v>0.1817450525843336</v>
       </c>
       <c r="P15">
-        <v>0.1744648779082384</v>
+        <v>0.2008321720153707</v>
       </c>
       <c r="Q15">
-        <v>7.129217787999412</v>
+        <v>8.115147801285001</v>
       </c>
       <c r="R15">
-        <v>7.129217787999412</v>
+        <v>73.036330211565</v>
       </c>
       <c r="S15">
-        <v>0.07639148183266595</v>
+        <v>0.0463491486506823</v>
       </c>
       <c r="T15">
-        <v>0.07639148183266595</v>
+        <v>0.05165593152131864</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.48615657962513</v>
+        <v>1.597393</v>
       </c>
       <c r="H16">
-        <v>1.48615657962513</v>
+        <v>4.792179</v>
       </c>
       <c r="I16">
-        <v>0.4378616644712</v>
+        <v>0.2550228905360453</v>
       </c>
       <c r="J16">
-        <v>0.4378616644712</v>
+        <v>0.2572094450951073</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.8949470547174</v>
+        <v>3.968023</v>
       </c>
       <c r="N16">
-        <v>3.8949470547174</v>
+        <v>11.904069</v>
       </c>
       <c r="O16">
-        <v>0.1416551133490446</v>
+        <v>0.1419554664766847</v>
       </c>
       <c r="P16">
-        <v>0.1416551133490446</v>
+        <v>0.156863827964389</v>
       </c>
       <c r="Q16">
-        <v>5.788501192659785</v>
+        <v>6.338492164039001</v>
       </c>
       <c r="R16">
-        <v>5.788501192659785</v>
+        <v>57.046429476351</v>
       </c>
       <c r="S16">
-        <v>0.06202534371186917</v>
+        <v>0.03620189338827681</v>
       </c>
       <c r="T16">
-        <v>0.06202534371186917</v>
+        <v>0.04034685814621487</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.48615657962513</v>
+        <v>1.597393</v>
       </c>
       <c r="H17">
-        <v>1.48615657962513</v>
+        <v>4.792179</v>
       </c>
       <c r="I17">
-        <v>0.4378616644712</v>
+        <v>0.2550228905360453</v>
       </c>
       <c r="J17">
-        <v>0.4378616644712</v>
+        <v>0.2572094450951073</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.83279398116487</v>
+        <v>4.897120999999999</v>
       </c>
       <c r="N17">
-        <v>4.83279398116487</v>
+        <v>14.691363</v>
       </c>
       <c r="O17">
-        <v>0.1757636161871168</v>
+        <v>0.1751938171597716</v>
       </c>
       <c r="P17">
-        <v>0.1757636161871168</v>
+        <v>0.1935929166904518</v>
       </c>
       <c r="Q17">
-        <v>7.182288573080898</v>
+        <v>7.822626805552999</v>
       </c>
       <c r="R17">
-        <v>7.182288573080898</v>
+        <v>70.403641249977</v>
       </c>
       <c r="S17">
-        <v>0.07696014953716812</v>
+        <v>0.04467843365612838</v>
       </c>
       <c r="T17">
-        <v>0.07696014953716812</v>
+        <v>0.04979392667629444</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.48615657962513</v>
+        <v>1.597393</v>
       </c>
       <c r="H18">
-        <v>1.48615657962513</v>
+        <v>4.792179</v>
       </c>
       <c r="I18">
-        <v>0.4378616644712</v>
+        <v>0.2550228905360453</v>
       </c>
       <c r="J18">
-        <v>0.4378616644712</v>
+        <v>0.2572094450951073</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.0223334534051</v>
+        <v>6.037346333333333</v>
       </c>
       <c r="N18">
-        <v>6.0223334534051</v>
+        <v>18.112039</v>
       </c>
       <c r="O18">
-        <v>0.2190259112597204</v>
+        <v>0.2159852185911309</v>
       </c>
       <c r="P18">
-        <v>0.2190259112597204</v>
+        <v>0.2386682881105867</v>
       </c>
       <c r="Q18">
-        <v>8.950130486474521</v>
+        <v>9.644014771442333</v>
       </c>
       <c r="R18">
-        <v>8.950130486474521</v>
+        <v>86.79613294298099</v>
       </c>
       <c r="S18">
-        <v>0.09590305006650252</v>
+        <v>0.05508117475816979</v>
       </c>
       <c r="T18">
-        <v>0.09590305006650252</v>
+        <v>0.0613877379467232</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.597393</v>
+      </c>
+      <c r="H19">
+        <v>4.792179</v>
+      </c>
+      <c r="I19">
+        <v>0.2550228905360453</v>
+      </c>
+      <c r="J19">
+        <v>0.2572094450951073</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.7536305</v>
+      </c>
+      <c r="N19">
+        <v>3.507261</v>
+      </c>
+      <c r="O19">
+        <v>0.06273588526458686</v>
+      </c>
+      <c r="P19">
+        <v>0.0462163304102329</v>
+      </c>
+      <c r="Q19">
+        <v>2.8012370852865</v>
+      </c>
+      <c r="R19">
+        <v>16.807422511719</v>
+      </c>
+      <c r="S19">
+        <v>0.01599908680051263</v>
+      </c>
+      <c r="T19">
+        <v>0.01188727669914814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.083968</v>
+      </c>
+      <c r="I20">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J20">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.2162245</v>
+      </c>
+      <c r="N20">
+        <v>12.432449</v>
+      </c>
+      <c r="O20">
+        <v>0.2223845599234924</v>
+      </c>
+      <c r="P20">
+        <v>0.1638264648089691</v>
+      </c>
+      <c r="Q20">
+        <v>0.1739879796053334</v>
+      </c>
+      <c r="R20">
+        <v>1.043927877632</v>
+      </c>
+      <c r="S20">
+        <v>0.0009937212392955486</v>
+      </c>
+      <c r="T20">
+        <v>0.000738332098613784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.083968</v>
+      </c>
+      <c r="I21">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J21">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.080245000000001</v>
+      </c>
+      <c r="N21">
+        <v>15.240735</v>
+      </c>
+      <c r="O21">
+        <v>0.1817450525843336</v>
+      </c>
+      <c r="P21">
+        <v>0.2008321720153707</v>
+      </c>
+      <c r="Q21">
+        <v>0.14219267072</v>
+      </c>
+      <c r="R21">
+        <v>1.27973403648</v>
+      </c>
+      <c r="S21">
+        <v>0.0008121243621952545</v>
+      </c>
+      <c r="T21">
+        <v>0.0009051091910344092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.083968</v>
+      </c>
+      <c r="I22">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J22">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.968023</v>
+      </c>
+      <c r="N22">
+        <v>11.904069</v>
+      </c>
+      <c r="O22">
+        <v>0.1419554664766847</v>
+      </c>
+      <c r="P22">
+        <v>0.156863827964389</v>
+      </c>
+      <c r="Q22">
+        <v>0.1110623184213333</v>
+      </c>
+      <c r="R22">
+        <v>0.999560865792</v>
+      </c>
+      <c r="S22">
+        <v>0.0006343253421933586</v>
+      </c>
+      <c r="T22">
+        <v>0.0007069529299346644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.083968</v>
+      </c>
+      <c r="I23">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J23">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.897120999999999</v>
+      </c>
+      <c r="N23">
+        <v>14.691363</v>
+      </c>
+      <c r="O23">
+        <v>0.1751938171597716</v>
+      </c>
+      <c r="P23">
+        <v>0.1935929166904518</v>
+      </c>
+      <c r="Q23">
+        <v>0.1370671520426666</v>
+      </c>
+      <c r="R23">
+        <v>1.233604368384</v>
+      </c>
+      <c r="S23">
+        <v>0.0007828502894482423</v>
+      </c>
+      <c r="T23">
+        <v>0.000872483359898512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.083968</v>
+      </c>
+      <c r="I24">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J24">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.037346333333333</v>
+      </c>
+      <c r="N24">
+        <v>18.112039</v>
+      </c>
+      <c r="O24">
+        <v>0.2159852185911309</v>
+      </c>
+      <c r="P24">
+        <v>0.2386682881105867</v>
+      </c>
+      <c r="Q24">
+        <v>0.1689812989724444</v>
+      </c>
+      <c r="R24">
+        <v>1.520831690752</v>
+      </c>
+      <c r="S24">
+        <v>0.0009651259024535608</v>
+      </c>
+      <c r="T24">
+        <v>0.00107562876510048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.083968</v>
+      </c>
+      <c r="I25">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J25">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.7536305</v>
+      </c>
+      <c r="N25">
+        <v>3.507261</v>
+      </c>
+      <c r="O25">
+        <v>0.06273588526458686</v>
+      </c>
+      <c r="P25">
+        <v>0.0462163304102329</v>
+      </c>
+      <c r="Q25">
+        <v>0.049082948608</v>
+      </c>
+      <c r="R25">
+        <v>0.294497691648</v>
+      </c>
+      <c r="S25">
+        <v>0.0002803341278498664</v>
+      </c>
+      <c r="T25">
+        <v>0.0002082874721236563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.48615657962513</v>
-      </c>
-      <c r="H19">
-        <v>1.48615657962513</v>
-      </c>
-      <c r="I19">
-        <v>0.4378616644712</v>
-      </c>
-      <c r="J19">
-        <v>0.4378616644712</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.75362846510257</v>
-      </c>
-      <c r="N19">
-        <v>1.75362846510257</v>
-      </c>
-      <c r="O19">
-        <v>0.06377761635947043</v>
-      </c>
-      <c r="P19">
-        <v>0.06377761635947043</v>
-      </c>
-      <c r="Q19">
-        <v>2.606166481630102</v>
-      </c>
-      <c r="R19">
-        <v>2.606166481630102</v>
-      </c>
-      <c r="S19">
-        <v>0.02792577325516336</v>
-      </c>
-      <c r="T19">
-        <v>0.02792577325516336</v>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.159745</v>
+      </c>
+      <c r="H26">
+        <v>0.31949</v>
+      </c>
+      <c r="I26">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J26">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.2162245</v>
+      </c>
+      <c r="N26">
+        <v>12.432449</v>
+      </c>
+      <c r="O26">
+        <v>0.2223845599234924</v>
+      </c>
+      <c r="P26">
+        <v>0.1638264648089691</v>
+      </c>
+      <c r="Q26">
+        <v>0.9930107827525</v>
+      </c>
+      <c r="R26">
+        <v>3.97204313101</v>
+      </c>
+      <c r="S26">
+        <v>0.005671517698573291</v>
+      </c>
+      <c r="T26">
+        <v>0.00280928118076074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.159745</v>
+      </c>
+      <c r="H27">
+        <v>0.31949</v>
+      </c>
+      <c r="I27">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J27">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.080245000000001</v>
+      </c>
+      <c r="N27">
+        <v>15.240735</v>
+      </c>
+      <c r="O27">
+        <v>0.1817450525843336</v>
+      </c>
+      <c r="P27">
+        <v>0.2008321720153707</v>
+      </c>
+      <c r="Q27">
+        <v>0.8115437375250001</v>
+      </c>
+      <c r="R27">
+        <v>4.869262425150001</v>
+      </c>
+      <c r="S27">
+        <v>0.004635080253389895</v>
+      </c>
+      <c r="T27">
+        <v>0.003443851651147859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.159745</v>
+      </c>
+      <c r="H28">
+        <v>0.31949</v>
+      </c>
+      <c r="I28">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J28">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.968023</v>
+      </c>
+      <c r="N28">
+        <v>11.904069</v>
+      </c>
+      <c r="O28">
+        <v>0.1419554664766847</v>
+      </c>
+      <c r="P28">
+        <v>0.156863827964389</v>
+      </c>
+      <c r="Q28">
+        <v>0.633871834135</v>
+      </c>
+      <c r="R28">
+        <v>3.80323100481</v>
+      </c>
+      <c r="S28">
+        <v>0.003620318518555095</v>
+      </c>
+      <c r="T28">
+        <v>0.002689886523256788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.159745</v>
+      </c>
+      <c r="H29">
+        <v>0.31949</v>
+      </c>
+      <c r="I29">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J29">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.897120999999999</v>
+      </c>
+      <c r="N29">
+        <v>14.691363</v>
+      </c>
+      <c r="O29">
+        <v>0.1751938171597716</v>
+      </c>
+      <c r="P29">
+        <v>0.1935929166904518</v>
+      </c>
+      <c r="Q29">
+        <v>0.7822905941449999</v>
+      </c>
+      <c r="R29">
+        <v>4.693743564869999</v>
+      </c>
+      <c r="S29">
+        <v>0.004468002792298593</v>
+      </c>
+      <c r="T29">
+        <v>0.003319713565334123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.159745</v>
+      </c>
+      <c r="H30">
+        <v>0.31949</v>
+      </c>
+      <c r="I30">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J30">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.037346333333333</v>
+      </c>
+      <c r="N30">
+        <v>18.112039</v>
+      </c>
+      <c r="O30">
+        <v>0.2159852185911309</v>
+      </c>
+      <c r="P30">
+        <v>0.2386682881105867</v>
+      </c>
+      <c r="Q30">
+        <v>0.9644358900183332</v>
+      </c>
+      <c r="R30">
+        <v>5.78661534011</v>
+      </c>
+      <c r="S30">
+        <v>0.005508314022750716</v>
+      </c>
+      <c r="T30">
+        <v>0.004092661896936362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.159745</v>
+      </c>
+      <c r="H31">
+        <v>0.31949</v>
+      </c>
+      <c r="I31">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J31">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.7536305</v>
+      </c>
+      <c r="N31">
+        <v>3.507261</v>
+      </c>
+      <c r="O31">
+        <v>0.06273588526458686</v>
+      </c>
+      <c r="P31">
+        <v>0.0462163304102329</v>
+      </c>
+      <c r="Q31">
+        <v>0.2801337042225</v>
+      </c>
+      <c r="R31">
+        <v>1.12053481689</v>
+      </c>
+      <c r="S31">
+        <v>0.00159996576981863</v>
+      </c>
+      <c r="T31">
+        <v>0.0007925133916347531</v>
       </c>
     </row>
   </sheetData>
